--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Anxa1-Dysf.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H2">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I2">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J2">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.53589633333333</v>
+        <v>48.980784</v>
       </c>
       <c r="N2">
-        <v>139.607689</v>
+        <v>146.942352</v>
       </c>
       <c r="O2">
-        <v>0.8867556666251134</v>
+        <v>0.88958507429209</v>
       </c>
       <c r="P2">
-        <v>0.8867556666251134</v>
+        <v>0.8895850742920899</v>
       </c>
       <c r="Q2">
-        <v>1326.010846748092</v>
+        <v>1184.944530643808</v>
       </c>
       <c r="R2">
-        <v>11934.09762073283</v>
+        <v>10664.50077579427</v>
       </c>
       <c r="S2">
-        <v>0.04279650441667563</v>
+        <v>0.06123679916441158</v>
       </c>
       <c r="T2">
-        <v>0.04279650441667563</v>
+        <v>0.06123679916441156</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H3">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I3">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J3">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>13.61389</v>
       </c>
       <c r="O3">
-        <v>0.08647227232814493</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="P3">
-        <v>0.08647227232814494</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="Q3">
-        <v>129.3063866019255</v>
+        <v>109.7825390482822</v>
       </c>
       <c r="R3">
-        <v>1163.75747941733</v>
+        <v>988.04285143454</v>
       </c>
       <c r="S3">
-        <v>0.004173315292921553</v>
+        <v>0.005673456538768286</v>
       </c>
       <c r="T3">
-        <v>0.004173315292921554</v>
+        <v>0.005673456538768285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H4">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I4">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J4">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.009942666666666666</v>
+        <v>0.04141666666666666</v>
       </c>
       <c r="N4">
-        <v>0.029828</v>
+        <v>0.12425</v>
       </c>
       <c r="O4">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791587</v>
       </c>
       <c r="P4">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791586</v>
       </c>
       <c r="Q4">
-        <v>0.2833099797017777</v>
+        <v>1.001953187277778</v>
       </c>
       <c r="R4">
-        <v>2.549789817315999</v>
+        <v>9.0175786855</v>
       </c>
       <c r="S4">
-        <v>9.1437236937616E-06</v>
+        <v>5.177998169090242E-05</v>
       </c>
       <c r="T4">
-        <v>9.1437236937616E-06</v>
+        <v>5.17799816909024E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H5">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I5">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J5">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.340541</v>
+        <v>1.451059666666667</v>
       </c>
       <c r="N5">
-        <v>4.021623</v>
+        <v>4.353179</v>
       </c>
       <c r="O5">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="P5">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="Q5">
-        <v>38.197865445159</v>
+        <v>35.10407705304378</v>
       </c>
       <c r="R5">
-        <v>343.780789006431</v>
+        <v>315.936693477394</v>
       </c>
       <c r="S5">
-        <v>0.001232821828901589</v>
+        <v>0.001814145101949464</v>
       </c>
       <c r="T5">
-        <v>0.001232821828901589</v>
+        <v>0.001814145101949463</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.49436566666666</v>
+        <v>24.19202866666667</v>
       </c>
       <c r="H6">
-        <v>85.48309699999999</v>
+        <v>72.576086</v>
       </c>
       <c r="I6">
-        <v>0.04826188997421808</v>
+        <v>0.0688374849512199</v>
       </c>
       <c r="J6">
-        <v>0.04826188997421808</v>
+        <v>0.06883748495121988</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.05448266666666666</v>
+        <v>0.04903466666666667</v>
       </c>
       <c r="N6">
-        <v>0.163448</v>
+        <v>0.147104</v>
       </c>
       <c r="O6">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665978</v>
       </c>
       <c r="P6">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665977</v>
       </c>
       <c r="Q6">
-        <v>1.552449026495111</v>
+        <v>1.186248061660445</v>
       </c>
       <c r="R6">
-        <v>13.972041238456</v>
+        <v>10.676232554944</v>
       </c>
       <c r="S6">
-        <v>5.010471202554465E-05</v>
+        <v>6.130416439966609E-05</v>
       </c>
       <c r="T6">
-        <v>5.010471202554465E-05</v>
+        <v>6.130416439966606E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>426.244309</v>
       </c>
       <c r="I7">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J7">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.53589633333333</v>
+        <v>48.980784</v>
       </c>
       <c r="N7">
-        <v>139.607689</v>
+        <v>146.942352</v>
       </c>
       <c r="O7">
-        <v>0.8867556666251134</v>
+        <v>0.88958507429209</v>
       </c>
       <c r="P7">
-        <v>0.8867556666251134</v>
+        <v>0.8895850742920899</v>
       </c>
       <c r="Q7">
-        <v>6611.886992099101</v>
+        <v>6959.260143452753</v>
       </c>
       <c r="R7">
-        <v>59506.98292889191</v>
+        <v>62633.34129107477</v>
       </c>
       <c r="S7">
-        <v>0.2133961811503081</v>
+        <v>0.3596479031013934</v>
       </c>
       <c r="T7">
-        <v>0.2133961811503081</v>
+        <v>0.3596479031013933</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>426.244309</v>
       </c>
       <c r="I8">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J8">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>13.61389</v>
       </c>
       <c r="O8">
-        <v>0.08647227232814493</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="P8">
-        <v>0.08647227232814494</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="Q8">
         <v>644.7603484280012</v>
@@ -948,10 +948,10 @@
         <v>5802.84313585201</v>
       </c>
       <c r="S8">
-        <v>0.02080939923445311</v>
+        <v>0.03332059766916639</v>
       </c>
       <c r="T8">
-        <v>0.02080939923445311</v>
+        <v>0.03332059766916639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>426.244309</v>
       </c>
       <c r="I9">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J9">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009942666666666666</v>
+        <v>0.04141666666666666</v>
       </c>
       <c r="N9">
-        <v>0.029828</v>
+        <v>0.12425</v>
       </c>
       <c r="O9">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791587</v>
       </c>
       <c r="P9">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791586</v>
       </c>
       <c r="Q9">
-        <v>1.412668360983556</v>
+        <v>5.884539488138889</v>
       </c>
       <c r="R9">
-        <v>12.714015248852</v>
+        <v>52.96085539325001</v>
       </c>
       <c r="S9">
-        <v>4.559334329609445E-05</v>
+        <v>0.0003041073683123578</v>
       </c>
       <c r="T9">
-        <v>4.559334329609445E-05</v>
+        <v>0.0003041073683123577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>426.244309</v>
       </c>
       <c r="I10">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J10">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.340541</v>
+        <v>1.451059666666667</v>
       </c>
       <c r="N10">
-        <v>4.021623</v>
+        <v>4.353179</v>
       </c>
       <c r="O10">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="P10">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="Q10">
-        <v>190.465990743723</v>
+        <v>206.1686416453679</v>
       </c>
       <c r="R10">
-        <v>1714.193916693507</v>
+        <v>1855.517774808311</v>
       </c>
       <c r="S10">
-        <v>0.006147218655171961</v>
+        <v>0.01065459806424645</v>
       </c>
       <c r="T10">
-        <v>0.006147218655171961</v>
+        <v>0.01065459806424645</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>426.244309</v>
       </c>
       <c r="I11">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="J11">
-        <v>0.2406482294750577</v>
+        <v>0.4042872497468467</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.05448266666666666</v>
+        <v>0.04903466666666667</v>
       </c>
       <c r="N11">
-        <v>0.163448</v>
+        <v>0.147104</v>
       </c>
       <c r="O11">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665978</v>
       </c>
       <c r="P11">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665977</v>
       </c>
       <c r="Q11">
-        <v>7.740975535270223</v>
+        <v>6.966915870126224</v>
       </c>
       <c r="R11">
-        <v>69.668779817432</v>
+        <v>62.70224283113601</v>
       </c>
       <c r="S11">
-        <v>0.0002498370918284849</v>
+        <v>0.0003600435437281375</v>
       </c>
       <c r="T11">
-        <v>0.0002498370918284848</v>
+        <v>0.0003600435437281374</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H12">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I12">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J12">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>46.53589633333333</v>
+        <v>48.980784</v>
       </c>
       <c r="N12">
-        <v>139.607689</v>
+        <v>146.942352</v>
       </c>
       <c r="O12">
-        <v>0.8867556666251134</v>
+        <v>0.88958507429209</v>
       </c>
       <c r="P12">
-        <v>0.8867556666251134</v>
+        <v>0.8895850742920899</v>
       </c>
       <c r="Q12">
-        <v>9768.709240937727</v>
+        <v>3214.628642156736</v>
       </c>
       <c r="R12">
-        <v>87918.38316843954</v>
+        <v>28931.65777941062</v>
       </c>
       <c r="S12">
-        <v>0.315281439213169</v>
+        <v>0.1661289313188036</v>
       </c>
       <c r="T12">
-        <v>0.315281439213169</v>
+        <v>0.1661289313188035</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H13">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I13">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J13">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>13.61389</v>
       </c>
       <c r="O13">
-        <v>0.08647227232814493</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="P13">
-        <v>0.08647227232814494</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="Q13">
-        <v>952.5989148642789</v>
+        <v>297.8283669038533</v>
       </c>
       <c r="R13">
-        <v>8573.390233778509</v>
+        <v>2680.45530213468</v>
       </c>
       <c r="S13">
-        <v>0.03074477389629857</v>
+        <v>0.01539148493275612</v>
       </c>
       <c r="T13">
-        <v>0.03074477389629857</v>
+        <v>0.01539148493275612</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H14">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I14">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J14">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.009942666666666666</v>
+        <v>0.04141666666666666</v>
       </c>
       <c r="N14">
-        <v>0.029828</v>
+        <v>0.12425</v>
       </c>
       <c r="O14">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791587</v>
       </c>
       <c r="P14">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791586</v>
       </c>
       <c r="Q14">
-        <v>2.087141914072444</v>
+        <v>2.718192565666667</v>
       </c>
       <c r="R14">
-        <v>18.784277226652</v>
+        <v>24.463733091</v>
       </c>
       <c r="S14">
-        <v>6.736172510419828E-05</v>
+        <v>0.0001404735900536106</v>
       </c>
       <c r="T14">
-        <v>6.736172510419826E-05</v>
+        <v>0.0001404735900536106</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H15">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I15">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J15">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.340541</v>
+        <v>1.451059666666667</v>
       </c>
       <c r="N15">
-        <v>4.021623</v>
+        <v>4.353179</v>
       </c>
       <c r="O15">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="P15">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="Q15">
-        <v>281.403309839673</v>
+        <v>95.23363215143867</v>
       </c>
       <c r="R15">
-        <v>2532.629788557057</v>
+        <v>857.102689362948</v>
       </c>
       <c r="S15">
-        <v>0.009082186636674306</v>
+        <v>0.004921582955943552</v>
       </c>
       <c r="T15">
-        <v>0.009082186636674304</v>
+        <v>0.004921582955943552</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>209.9177196666667</v>
+        <v>65.630404</v>
       </c>
       <c r="H16">
-        <v>629.753159</v>
+        <v>196.891212</v>
       </c>
       <c r="I16">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="J16">
-        <v>0.3555448824061003</v>
+        <v>0.1867487844836031</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.05448266666666666</v>
+        <v>0.04903466666666667</v>
       </c>
       <c r="N16">
-        <v>0.163448</v>
+        <v>0.147104</v>
       </c>
       <c r="O16">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665978</v>
       </c>
       <c r="P16">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665977</v>
       </c>
       <c r="Q16">
-        <v>11.43687714802578</v>
+        <v>3.218164983338667</v>
       </c>
       <c r="R16">
-        <v>102.931894332232</v>
+        <v>28.963484850048</v>
       </c>
       <c r="S16">
-        <v>0.0003691209348541974</v>
+        <v>0.0001663116860462481</v>
       </c>
       <c r="T16">
-        <v>0.0003691209348541973</v>
+        <v>0.0001663116860462481</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H17">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I17">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J17">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>46.53589633333333</v>
+        <v>48.980784</v>
       </c>
       <c r="N17">
-        <v>139.607689</v>
+        <v>146.942352</v>
       </c>
       <c r="O17">
-        <v>0.8867556666251134</v>
+        <v>0.88958507429209</v>
       </c>
       <c r="P17">
-        <v>0.8867556666251134</v>
+        <v>0.8895850742920899</v>
       </c>
       <c r="Q17">
-        <v>3613.362458161243</v>
+        <v>3047.767291054384</v>
       </c>
       <c r="R17">
-        <v>32520.26212345119</v>
+        <v>27429.90561948945</v>
       </c>
       <c r="S17">
-        <v>0.1166199226642714</v>
+        <v>0.1575056964065285</v>
       </c>
       <c r="T17">
-        <v>0.1166199226642714</v>
+        <v>0.1575056964065285</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H18">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I18">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J18">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>13.61389</v>
       </c>
       <c r="O18">
-        <v>0.08647227232814493</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="P18">
-        <v>0.08647227232814494</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="Q18">
-        <v>352.3582360534366</v>
+        <v>282.3690248677411</v>
       </c>
       <c r="R18">
-        <v>3171.22412448093</v>
+        <v>2541.32122380967</v>
       </c>
       <c r="S18">
-        <v>0.01137223035731146</v>
+        <v>0.01459256093336436</v>
       </c>
       <c r="T18">
-        <v>0.01137223035731146</v>
+        <v>0.01459256093336436</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H19">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I19">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J19">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.009942666666666666</v>
+        <v>0.04141666666666666</v>
       </c>
       <c r="N19">
-        <v>0.029828</v>
+        <v>0.12425</v>
       </c>
       <c r="O19">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791587</v>
       </c>
       <c r="P19">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791586</v>
       </c>
       <c r="Q19">
-        <v>0.7720160413373333</v>
+        <v>2.577099663638889</v>
       </c>
       <c r="R19">
-        <v>6.948144372035999</v>
+        <v>23.19389697275</v>
       </c>
       <c r="S19">
-        <v>2.491652915499437E-05</v>
+        <v>0.0001331820439250296</v>
       </c>
       <c r="T19">
-        <v>2.491652915499437E-05</v>
+        <v>0.0001331820439250296</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H20">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I20">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J20">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.340541</v>
+        <v>1.451059666666667</v>
       </c>
       <c r="N20">
-        <v>4.021623</v>
+        <v>4.353179</v>
       </c>
       <c r="O20">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="P20">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="Q20">
-        <v>104.088690767439</v>
+        <v>90.29035120048188</v>
       </c>
       <c r="R20">
-        <v>936.798216906951</v>
+        <v>812.613160804337</v>
       </c>
       <c r="S20">
-        <v>0.003359423586224217</v>
+        <v>0.00466611892789953</v>
       </c>
       <c r="T20">
-        <v>0.003359423586224217</v>
+        <v>0.004666118927899528</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>77.646779</v>
+        <v>62.22373433333333</v>
       </c>
       <c r="H21">
-        <v>232.940337</v>
+        <v>186.671203</v>
       </c>
       <c r="I21">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="J21">
-        <v>0.1315130278311194</v>
+        <v>0.1770552372766232</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05448266666666666</v>
+        <v>0.04903466666666667</v>
       </c>
       <c r="N21">
-        <v>0.163448</v>
+        <v>0.147104</v>
       </c>
       <c r="O21">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665978</v>
       </c>
       <c r="P21">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665977</v>
       </c>
       <c r="Q21">
-        <v>4.230403577997333</v>
+        <v>3.051120071790222</v>
       </c>
       <c r="R21">
-        <v>38.073632201976</v>
+        <v>27.460080646112</v>
       </c>
       <c r="S21">
-        <v>0.0001365346941573528</v>
+        <v>0.0001576789649058154</v>
       </c>
       <c r="T21">
-        <v>0.0001365346941573528</v>
+        <v>0.0001576789649058153</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H22">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I22">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J22">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.53589633333333</v>
+        <v>48.980784</v>
       </c>
       <c r="N22">
-        <v>139.607689</v>
+        <v>146.942352</v>
       </c>
       <c r="O22">
-        <v>0.8867556666251134</v>
+        <v>0.88958507429209</v>
       </c>
       <c r="P22">
-        <v>0.8867556666251134</v>
+        <v>0.8895850742920899</v>
       </c>
       <c r="Q22">
-        <v>6155.349962729401</v>
+        <v>2807.051685240368</v>
       </c>
       <c r="R22">
-        <v>55398.1496645646</v>
+        <v>25263.46516716331</v>
       </c>
       <c r="S22">
-        <v>0.1986616191806894</v>
+        <v>0.145065744300953</v>
       </c>
       <c r="T22">
-        <v>0.1986616191806893</v>
+        <v>0.145065744300953</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H23">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I23">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J23">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>13.61389</v>
       </c>
       <c r="O23">
-        <v>0.08647227232814493</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="P23">
-        <v>0.08647227232814494</v>
+        <v>0.08241812644358884</v>
       </c>
       <c r="Q23">
-        <v>600.2409889050034</v>
+        <v>260.0672464203989</v>
       </c>
       <c r="R23">
-        <v>5402.16890014503</v>
+        <v>2340.60521778359</v>
       </c>
       <c r="S23">
-        <v>0.01937255354716025</v>
+        <v>0.01344002636953369</v>
       </c>
       <c r="T23">
-        <v>0.01937255354716025</v>
+        <v>0.01344002636953369</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H24">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I24">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J24">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.009942666666666666</v>
+        <v>0.04141666666666666</v>
       </c>
       <c r="N24">
-        <v>0.029828</v>
+        <v>0.12425</v>
       </c>
       <c r="O24">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791587</v>
       </c>
       <c r="P24">
-        <v>0.0001894605391261357</v>
+        <v>0.0007522061813791586</v>
       </c>
       <c r="Q24">
-        <v>1.315126552150667</v>
+        <v>2.373557841861111</v>
       </c>
       <c r="R24">
-        <v>11.836138969356</v>
+        <v>21.36202057675</v>
       </c>
       <c r="S24">
-        <v>4.2445217877087E-05</v>
+        <v>0.0001226631973972583</v>
       </c>
       <c r="T24">
-        <v>4.2445217877087E-05</v>
+        <v>0.0001226631973972583</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H25">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I25">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J25">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.340541</v>
+        <v>1.451059666666667</v>
       </c>
       <c r="N25">
-        <v>4.021623</v>
+        <v>4.353179</v>
       </c>
       <c r="O25">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="P25">
-        <v>0.02554441671389524</v>
+        <v>0.02635402939597541</v>
       </c>
       <c r="Q25">
-        <v>177.314710675869</v>
+        <v>83.15913201187212</v>
       </c>
       <c r="R25">
-        <v>1595.832396082821</v>
+        <v>748.4321881068489</v>
       </c>
       <c r="S25">
-        <v>0.005722766006923168</v>
+        <v>0.004297584345936415</v>
       </c>
       <c r="T25">
-        <v>0.005722766006923168</v>
+        <v>0.004297584345936414</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>132.271009</v>
+        <v>57.30924366666667</v>
       </c>
       <c r="H26">
-        <v>396.813027</v>
+        <v>171.927731</v>
       </c>
       <c r="I26">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="J26">
-        <v>0.2240319703135046</v>
+        <v>0.1630712435417071</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.05448266666666666</v>
+        <v>0.04903466666666667</v>
       </c>
       <c r="N26">
-        <v>0.163448</v>
+        <v>0.147104</v>
       </c>
       <c r="O26">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665978</v>
       </c>
       <c r="P26">
-        <v>0.001038183793720284</v>
+        <v>0.0008905636869665977</v>
       </c>
       <c r="Q26">
-        <v>7.206477293010667</v>
+        <v>2.810139660113778</v>
       </c>
       <c r="R26">
-        <v>64.85829563709599</v>
+        <v>25.291256941024</v>
       </c>
       <c r="S26">
-        <v>0.0002325863608547042</v>
+        <v>0.0001452253278867307</v>
       </c>
       <c r="T26">
-        <v>0.0002325863608547041</v>
+        <v>0.0001452253278867307</v>
       </c>
     </row>
   </sheetData>
